--- a/Prediction based on convolutional neural network/worklog/structure/4/tran_20000test.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure/4/tran_20000test.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$199</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -347,7 +347,7 @@
   <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
